--- a/test/response_quality_evaluation_specific.xlsx
+++ b/test/response_quality_evaluation_specific.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyuyang/Desktop/CMU MSCF Courses/Mini 5/ML_Capstone/QACapstone/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D98583-336B-4444-93FB-0C460896671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE0BBE-D5A7-F74B-8BEB-3D6FE7C1DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Parsers</t>
   </si>
@@ -34,185 +34,330 @@
     <t>unstructured</t>
   </si>
   <si>
-    <t>MID-YEAR OUTLOOK 2024
-OUTLOOK 2024  KEY THEMES  Macroeconomy:  A Longer Path to Normalization    Geopolitics and Elections:  Roadmaps for Resilience  Tailwinds and Headwinds:   Investing in Megatrends
-This financial promotion is provided by Goldman Sachs Asset Management B.V.</t>
-  </si>
-  <si>
-    <t>Based on the provided context, the key takeaway of Goldman Sachs' mid-year outlook for 2024 is that the economic realities are taking shape, including higher-for-longer interest rates, elevated geopolitical risk, and megatrends rapidly transforming industries. The report highlights the need for a dynamic investment approach in the months ahead as the macroeconomic cycle adjusts, and emphasizes the importance of understanding the nuances of these forces and how they interconnect to potentially capitalize on the opportunities they create.</t>
+    <t>Sovereign Bond Yields (%)
+Latest (%) Year-to-date Change (bps) 1-Year Change (bps) Last 10-year Percentile US 2 Year 4.6 39 -32 91 US 10 Year 43 40 22 95 US 2-10 Slope -0.3 1 54 15 US Treasury 10-Year Inflation-Protected 2.0 29 22 95 Germany 2 Year 2.9 52 -33 92 Germany 10 Year 2.5 51 -8 95 Japanese 10 Year 11 47 66 100 UK 10 Year 4.2 56 -47 92 Chinese 10 Year 2.3 -29 eae) 1
+Source: Macrobond, Goldman Sachs Asset Management. As of 11 July 2024.
+query_resposne_sim:0.8556430892936366</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, the potential market implications of rising sovereign debt levels are as follows:
+1. Increased borrowing costs: As sovereign debt levels rise, governments may face higher borrowing costs, which can have a negative impact on their budgets and economic growth.
+2. Reduced investor confidence: Higher debt levels can lead to reduced investor confidence in the government's ability to manage its finances, potentially leading to a decrease in bond prices and an increase in yields.
+3. Inflation pressure: Excessive government borrowing can lead to inflation pressure as the increased supply of money chases a limited number of goods and services, eroding the purchasing power of the currency.
+4. Risk of debt crisis: If sovereign debt levels continue to rise unchecked, it can increase the risk of a debt crisis, where investors lose confidence in the government's ability to repay its debts, leading to a sharp increase in interest rates and a decline in economic activity.
+5. Reduced economic growth: Higher borrowing costs and reduced investor confidence can lead to reduced economic growth as businesses and consumers become less willing to take on debt and make investments.
+query_resposne_sim:0.714037143011964</t>
   </si>
   <si>
     <t>llamaparse</t>
   </si>
   <si>
-    <t>Goldman Sachs Asset Management
-Asset Management Outlook 2024  |  10
-# GEOPOLITICS AND ELECTIONS: ROADMAPS FOR RESILIENCE
-# Three Key Questions
-# 1
-Are investment theses predicated on the continuation of existing policies?
-Our View: While prudent investments are never predicated on a single factor, many investors are contemplating how potential policy removals, additions, or alterations can change underwriting assumptions. This can potentially be easier to navigate in the US, where many policies related to supply chains and energy resources have a bottom-up nature that target specific markets, as opposed to in Europe where top-down regulations can fundamentally change the landscape.</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman's mid-year outlook 2024 is that the macroeconomy is on a longer path to normalization, with considerable but still incomplete disinflation progress lengthening the path to interest rate normalization. This condition calls for active and dynamic investment strategies, and balanced allocations and hedging strategies can potentially add resilience to portfolios amid unstable geopolitics and election-related uncertainty. Additionally, areas of potential opportunity include core fixed income, equity exposures beyond the largest mega-cap names, and private market strategies focused on driving value creation at portfolio companies.</t>
+    <t xml:space="preserve">
+In the short term, we expect DM government bond yields to be shaped by the latest economic indicators, as central banks focus on current data rather than inflation or economic forecasts. The disinflation path will be closely watched, with any signs of economic or labor market downturn potentially leading to the start or acceleration of rate-cutting cycles, influencing short-term yields. However, without clear evidence of economic deceleration, a sustained drop in yields is unlikely. We also recognize the possibility of increased yield volatility due to lower liquidity during the summer holidays. The recent volatility in French sovereign bonds demonstrates how political factors can affect yields, either by changing fiscal outlook perceptions or by emphasizing existing fiscal challenges. In the US, the likelihood of persistent fiscal deficits across all election scenarios suggests a continuing trend of a high and possibly increasing term premium.
+# WHERE ARE THE OPPORTUNITIES?
+We are strategically navigating divergent central bank policies with cross-market interest rate exposures. We favor Canadian rates, already benefiting from the Bank of Canada's rate cuts and potential for further easing, a reflection of Canada's strides in disinflation. The recent oil price drop has also favored Canadian rate performance, given the economy's reliance on this commodity. The UK is another promising candidate for overweight rate exposure, with headline inflation returning to 2% and a weakening labor market suggesting possible dovish policy shifts. The BoE has indicated readiness to ease this summer, should data support their forecasts. We see value in overweight exposure to Swedish rates, where slow growth and slowing inflation hint at further easing. In contrast, we're underweight Japanese rates due to the weak yen and strong wage growth pointing to.
+query_resposne_sim:0.7712892238902764</t>
+  </si>
+  <si>
+    <t>I'm just an AI, I don't have access to real-time market data or current events, so I cannot provide a direct answer to your query based on the context information provided. However, I can give you some general insights and trends in the global fixed income market based on the information provided:
+1. Global central banks have mostly ended their hiking cycles and some have started to cut rates, which may lead to a decrease in sovereign bond yields.
+2. The year-to-date change in sovereign bond yields is likely to be positive for countries like Turkey, Egypt, and Russia, as their yields have increased by 41.5%, 9%, and -8.5% respectively.
+3. However, the overall trend in sovereign bond yields may be flat or negative, depending on the economic conditions and monetary policies of individual countries.
+4. The US is unlikely to cut rates significantly, as the Fed has indicated a willingness to keep interest rates low for an extended period to support the economy.
+5. The UK is also unlikely to cut rates significantly, as the BoE has signaled a willingness to ease policy only if data supports their forecasts.
+6. Canada and Sweden are potential candidates for rate cuts, as they have already benefited from central bank rate cuts and have the potential for further easing.
+7. The Japanese yen's weakness may lead to higher yields in Japan, while the UK's recent oil price drop may favor Canadian rates.
+In conclusion, the year-to-date change in sovereign bond yields is likely to be diverse and depend on individual country's economic conditions and monetary policies.
+query_resposne_sim:0.8140715077306162</t>
   </si>
   <si>
     <t>pdfplumber</t>
   </si>
   <si>
-    <t>Goldman Sachs Asset Management Asset Management Outlook 2024 | 18
-and Goldman Sachs Asset Management has no obligation to provide any maintain any licenses, authorizations or registrations in Asia (other
-updates or changes. than Japan), except that it conducts businesses (subject to applicable
-Views and opinions expressed are for informational purposes only local regulations) in and from the following jurisdictions: Hong Kong,
-and do not constitute a recommendation by Goldman Sachs Asset Singapore, India and China. This material has been issued for use in or
-Management to buy, sell, or hold any security. Views and opinions are from Hong Kong by Goldman Sachs Asset Management (Hong Kong)
-current as of the date of this presentation and may be subject to change, Limited and in or from Singapore by Goldman Sachs Asset Management
-they should not be construed as investment advice. (Singapore) Pte. Ltd. (Company Number: 201329851H).
-Individual portfolio management teams for Goldman Sachs Asset Australia and New Zealand: This material is distributed in Australia
-Management may have views and opinions and/or make investment and New Zealand by Goldman Sachs Asset Management Australia Pty
-decisions that, in certain instances, may not always be consistent with Ltd ABN 41 006 099 681, AFSL 228948 (’GSAMA’) and is intended
-the views and opinions expressed herein. for viewing only by wholesale clients in Australia for the purposes of
-section 761G of the Corporations Act 2001 (Cth) and to clients who
-The website links provided are for your convenience only and are not an either fall within any or all of the categories of investors set out in
-endorsement or recommendation by Goldman Sachs Asset Management section 3(2) or sub-section 5(2CC) of the Securities Act 1978, fall
-of any of these websites or the products or services offered. Goldman within the definition of a wholesale client for the purposes of the</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman Sachs' mid-year outlook 2024 is that the macroeconomy is on a longer path to normalization, with geopolitical and election-related risks continuing to pose challenges for investors. Despite these headwinds, there are still tailwinds from megatrends such as technology and demographic shifts that can provide opportunities for growth.</t>
+    <t>short duration bonds are a timely and wise investment for those needing
+liquidity. They offer a chance to secure attractive yields before the expected
+expansion of central bank rate cuts.
+Against a backdrop of inverted yield curves and low credit spreads, short
+Source: Goldman Sachs Asset Management, Bloomberg. Analysis is based on monthly data from
+duration bonds present a lower risk and volatility alternative to long-term
+March 1995 to April 10, 2024. Past performance does not guarantee future results which may
+bonds, making them a suitable complement to core fixed income allocations. vary. Yield to Worst is the interest rate that makes the present value of a bond's cash flows equal
+to the bond's price or initial investment, calculated by making worst-case scenario assumptions
+They also serve as a strategic complement to cash, especially as yields are
+(excluding issuer default) on the bond by calculating the returns that would be received if
+(excluding issuer default) on the bond by calculating the returns that would be received if
+projected to decrease alongside central bank policy rates. Overall, short provisions, including prepayment, call, put, and sinking fund, are used by the issuer.
+duration bonds are a valuable investment solution for those aiming to
+maintain liquidity and capital safety while also seeking additional income.
+The economic and market forecasts presented herein are for informational purposes as of the date of this document. There can be no assurance that the forecasts will be achieved. Please see additional
+disclosures at the end of this document.
+FIXED INCOME OUTLOOK: SOUND FUNDAMENTALS, NARROW MARGINS Goldman Sachs Asset Management 17
+GREEN, SOCIAL AND SUSTAINABILITY BONDS
+An Expanding Opportunity Set
+OUTLOOK WHERE ARE THE OPPORTUNITIES? (CONTINUED)
+In the first half of 2024, the green, social and sustainable (GSS) bond The green bond market is also aligning with the broader fixed income market,
+market has grown significantly, with issuance totalling $496 billion— as seen in the growth of the industrial sectors weight from 2% to 12%. This
+equivalent to 11% of the global investment-grade corporate bond market. shift broadens investment opportunities for those supporting global
+Growth is set to continue, with issuance potentially doubling to $1 trillion by sustainability goals. Proceeds from financials and utilities green bonds are
+the end of the year, despite a seasonal slowdown in the third quarter. The primarily directed towards two Green Bond Principles categories, aligning
+market’s expansion is marked by increased diversity and depth, with the with three UN SDGs: SDG 7 (Affordable and Clean Energy), SDG 11
+query_resposne_sim:0.7720991598996665</t>
+  </si>
+  <si>
+    <t>The year-to-date change in sovereign bond yields can be calculated by analyzing the monthly data from March 1995 to April 2024, as provided in the context information. Based on this analysis, the year-to-date change in sovereign bond yields is [insert answer here].
+query_resposne_sim:0.9270414521521055</t>
   </si>
   <si>
     <t>pypdfloader</t>
   </si>
   <si>
-    <t xml:space="preserve">MID-YEAR  
-OUTLOOK 2024
-KEY THEMESAsset Management 
-This financial promotion is provided by Goldman Sachs Asset Management B.V.Tailwinds and Headwinds: 
-Investing in MegatrendsGeopolitics and Elections:
-Roadmaps for ResilienceMacroeconomy:
-A Longer Path to Normalization  
-Geopolitics and Elections:  
-Roadmaps for Resilience
-Balanced allocations and hedging 
-strategies can potentially add 
-resilience to portfolios amid 
-unstable geopolitics and election-
-related uncertainty. Hedge funds 
-and liquid alternatives may 
-help investors navigate market 
-volatility. A heightened focus 
-on supply chain, resource, and 
-national security presents long-
-term investment opportunities.Tailwinds and Headwinds: 
-Investing in Megatrends 
-We remain focused on key structural 
-forces: decarbonization, digitization, 
-deglobalization, destabilization 
-in geopolitics, and demographic 
-aging. These trends transcend 
-economic and election cycles, and 
-new opportunities and risks are 
-emerging as they intersect. Macroeconomy:  
-A Longer Path to Normalization  
-Considerable, but still incomplete, 
-disinflation progress is lengthening 
-the path to interest rate 
-normalization. We believe these 
-conditions call for active and 
-dynamic investment strategies. 
-Areas of potential opportunity 
-include core fixed income, equity 
-exposures beyond the largest mega-
-cap names, and private market 
-strategies focused on driving value 
-creation at portfolio companies. 
-KEY TAKEAWAYSHeading into 2024 we highlighted how new economic realities were taking shape, including higher-for-
-longer interest rates, elevated geopolitical risk and megatrends rapidly transforming industries. These 
-realities are playing out as we cross the midpoint of the year. At a macro level, inflation persistence 
-means central banks are pivoting to rate cuts at a slower pace than anticipated six months ago. In our 
-view, evolving expectations on the exact timing and pace of policy shifts underscores the need for a 
-dynamic investment approach in the months ahead. As the macroeconomic cycle adjusts, the world 
-remains in an era of profound geopolitical change. Conflict escalation in the Middle East and Ukraine 
-remain major risks. The buildup and eventual fallout of key political elections globally are heightening 
-market volatility. These uncertainties are playing out as secular megatrends—from artificial intelligence 
-to sustainability—accelerate and reshape economies and industries. Understanding the nuances of 
-these forces and how they interconnect can enable companies and investors to potentially capitalize 
-on the opportunities they create. We have synthesized views from across our investment teams to cut 
-through some of this complexity and help you navigate the remainder of 2024. CUTTING THROUGH COMPLEXITY
+    <t>Source: Goldman Sachs Global Investment Research. As of June 14, 2024.Global Central Banks Have Mostly Ended Their Hiking Cycles and Some Have Started to Cut Rates
+-0.5%0.0%0.5%1.0%1.5%
+Norway
+UK
+Australia
+Euro Area
+Sweden
+US
+Hong Kong
+Japan
+Canada
+New Zealand
+Switzerland0–3 Months 3–6 Months 6–12 Months TotalPolicy Rate Changes in the Last
+3/6/12 Months (%)Developed Markets
+0–3 Months 3–6 Months 6–12 Months Total
+-6%-3%0%3%
+Indonesia
+Thailand
+Philippines
+Taiwan
+India
+Malaysia
+South Korea
+Mainland China
+Vietnam
+Pakistan
+Mexico
+Colombia
+Peru
+Brazil
+Chile
+Turkey
+Egypt
+Russia
+Romania
+South Africa
+Israel
+Ghana
+Poland
+Czech Republic
+Hungary
+UkrainePolicy Rate Changes in the Last
+3/6/12 Months (%)
++41.5%
++9.0% 
+-8.5%
+-11. 5%Total:
+Turkey: 
+Egypt: 
+Russia: 
+Ukraine:Emerging Markets
 Goldman Sachs Asset Management
-Asset Management Outlook 2024     |    2
-Major central banks lifted interest rates at the fastest pace 
-in decades after the pandemic. The path to normalization 
-is likely to be a longer one. While the inflation emergency is 
-behind major economies, inflation is proving persistent due 
-to pandemic-related quirks or catch-up effects in categories 
-where prices adjust gradually. The result is that central banks 
-are pivoting to rate cuts at a slower pace than anticipated at 
-the start of 2024.  
-In the US, policymakers and investors are contending with 
-last mile complexities. Resilience in the economy, corporate 
-earnings, and labor markets coincided with upside surprises in 
-inflation throughout the first quarter. Inflation prints for April 
-and May were a step in the right direction, but not enough 
-to fully offset inflation strength earlier in the year and the 
-solid string of jobs data.1 Overall, despite a bumpy first half, 
-we expect US disinflation to continue and rates to be lowered 
-before year-end. However, the exact timing remains uncertain 
-due to the need for economic data to reaffirm confidence in 
-labor market rebalancing and the disinflation path. Beyond 
-that, the US election—and potential fiscal shifts—could point 
-to higher US rates for longer. 
-The European Central Bank (ECB)—which has historically 
-embarked on cutting cycles after the Fed—lowered rates in 
-June,2 motivated by sufficient inflation progress since the last 
-rate hike in September 2023. We expect rate reductions to 
-be gradual over the coming quarters. We remain watchful of 
-wage trends and services inflation, as well as any tightening 
-in financial conditions caused by political uncertainty, which may pose downside risks to growth and alter the pace 
-and scope of the ECB's rate cutting cycle. In the UK, recent 
-inflation strength has pushed back the Bank of England’s 
-(BoE) first rate cut in this cycle; and the potential for a 
-summer cut depends on signals from indicators of inflation 
-persistence such as wage growth and services prices. In Japan, 
-we anticipate further, albeit limited, rate hikes as the Bank 
-of Japan (BoJ) persists with gradual rate normalization, with 
-longer-run inflation expectations continuing to rise to more 
-sustainable levels. 
-Emerging market (EM) cutting cycles have been underway for 
-almost a year. EM disinflation, which has allowed an earlier 
-start to policy easing, has broadly remained intact. Countries 
-in Asia, Central and Eastern Europe and Latin America have 
-made good progress on cooling inflation, though there 
-are also notable outliers, including Argentina and Turkey. 
-More recently, EM cutting cycles have become vulnerable to 
-shifting US rate expectations, as well as concerns over the 
-credibility of policymaking (e.g., Brazil) and election-related 
-sentiment (e.g., Mexico). As a result, market expectations on 
-the speed and extent of EM policy easing have been pared 
-back compared with just a few months ago. In some cases, the 
-market is now pricing in rate hikes. China’s economy continues 
-to diverge, with policymakers set to maintain an easing bias as 
-the economy and property market recovers.  MACROECONOMY:  
-A LONGER PATH TO NORMALIZATION
+Asset Management Outlook 2024     |    4
+Investment ConsiderationsMACROECONOMY: A LONGER PATH TO NORMALIZATION
+Stay Focused on Fixed Income  
+In an environment of steady growth, slowing inflation, and 
+broadly robust corporate fundamentals, we see opportunities 
+to build well-diversified fixed income portfolios with the 
+potential to capture attractive levels of income. However, we 
+believe the environment remains one in which active security 
+selection is critical. We remain vigilant of downside surprises 
+in economic activity and headwinds to business investment 
+due to election-related uncertainties, and tactical in adjusting 
+our positioning in response to market driven opportunities. 
+Uncertainty underscores the defensive role of government 
+bonds and perceived safe-haven currencies like the US dollar. 
+Elsewhere, we see value in attractive income provided by 
+spread sectors like corporate and securitized credit. 
+In government bond markets, we believe adopting a dynamic 
+strategy in managing duration is essential given divergent 
+timelines, paces, and directions of central bank policies. In the 
+US, we are positioned for a steepening of the forward Treasury 
+yield curve. This exposure may safeguard against downward 
+growth risks and allow investors to capitalize on the start to 
+Fed rate cuts or growing term premium driven by a steady 
+supply of US Treasuries. Our position on European rates is 
+broadly neutral. While the ECB has shown an easing bias and 
+political uncertainties could dampen growth, we are also alert 
+to strength in services inflation. We favor UK rates as the BoE 
+is on course to ease policy, absent significant upside data 
+surprises. Conversely, in Japan, we are mindful that continued 
+strength in wages and a hawkish leaning BoJ increases the 
+likelihood of further tightening. In the EM sovereign credit 
+space, investors have potential opportunities to capture 
+attractive carry and identify bonds with potential for total 
+return due to possible rating upgrades to investment grade. 
+While we have reduced our overall exposure to EM local bonds, 
+we are focused on markets like Chile, Czechia, and Hungary, 
+which appear poised for continued monetary easing, and 
+continue to monitor country-specific factors given unfolding 
+divergence in central bank policy paths. 
+Despite the overall credit landscape appearing stable, 
+dispersion is evident across sectors and regions. For instance, 
+A-rated issuers with higher debt levels have seen a more 
+significant drop in interest coverage ratios compared to 
+BBB-rated issuers with lower leverage. Across credit, we 
+favor issuers in sectors with the potential to demonstrate 
+resilience throughout the economic cycle. Bonds issued by banks are appealing, in our view, due to their spread premium, 
+although recent performance has reduced their valuation 
+appeal. Sectors adapting to decarbonization and digitization, 
+such as telecoms with broadband and 5G services, and 
+tech firms focusing on cybersecurity and data protection, 
+also offer potential opportunities. We continue to believe 
+the EM corporate bond market offers an attractive mix of 
+yield, diversification for existing corporate or EM exposures, 
+and resilience to macroeconomic challenges. Our analysis 
+suggests EM corporate fundamentals remain healthy, with 
+net leverage at near-decade lows. Credit rating trends are 
+positive, and default activity is projected to decrease in 2024, 
+reversing the trend of the past three years. Additionally, the 
+technical environment is favorable due to the limited new 
+supply. We maintain a positive view on securitized credit, 
+including commercial mortgage-backed securities (CMBS) 
+and collateralized loan obligations (CLOs). We think there is 
+potential for further spread tightening in the latter half of 
+the year, supported by strong fundamentals, especially for 
+securities at the top of the capital structure. Importantly, 
+recent economic data remain supportive of a 'soft-landing' 
+scenario, which is favorable for sustaining cash flows from 
+underlying loans. 
+Broaden Your Equity Horizons
+In public equity markets, inflationary pressures and higher 
+interest rates have enabled the strongest business models 
+to demonstrate their margin resilience over recent quarters. 
+First quarter earnings seasons in the US were generally 
+better-than-expected based on our analysis.3 Most of the 
+earnings growth of the S&amp;P 500 continues to be driven 
+by the “Magnificent 7”, though performance dispersion 
+within the group has widened. The second half of 2024 may 
+present investors with opportunities to broaden their equity 
+horizons beyond the largest names. We see a new layer of 
+AI beneficiaries emerging that are simultaneously backed 
+by fundamentals and complementary to the Magnificent 7, 
+including companies enhancing AI by harnessing the power 
+of data. Scrutiny of AI strategies, returns on investments, and 
+profitability is likely to heighten as corporate AI spending 
+grows. This underscores the need for careful security 
+selection and active management. 
+After a multi-year period of underperformance relative to 
+large caps, we believe US small caps are poised for a rebound. 
 Goldman Sachs Asset Management
-Asset Management Outlook 2024     |    3
-</t>
-  </si>
-  <si>
-    <t>The key takeaway of Goldman Sachs Asset Management's mid-year outlook 2024 is that they expect a longer path to normalization for the global economy, with tailwinds and headwinds in different regions. They highlight several megatrends, including geopolitics and elections, which will play a significant role in shaping investment decisions. Additionally, they provide insights into various asset classes, such as equities, fixed income, and currencies, and offer recommendations for investors to position their portfolios for resilience in the current environment.</t>
+Asset Management Outlook 2024     |    5
+Investment ConsiderationsMACROECONOMY: A LONGER PATH TO NORMALIZATION
+Our view is based on the attractive absolute and relative 
+valuations, the improving US macroeconomic outlook and the 
+prospect of US interest rate cuts before year-end. US policy 
+easing cycles have historically provided a tailwind to the asset 
+class.4 With a higher share of floating debt and higher debt 
+burdens, smaller companies may see a more instantaneous 
+and stronger top-line impact from expected rate reductions in 
+the second half of 2024. Small caps also offer diversification 
+away from concentration risk within the S&amp;P 500.  
+Outside the US, we believe Europe’s improving growth and 
+inflation mix, combined with better corporate earnings 
+dynamics and modest valuations, bodes well for European 
+equities. Rate reductions in Europe have materialized ahead 
+of the US, and that, combined with moderating wage growth 
+and inflation, should improve margins for companies, in our 
+view, including European small caps that have been vulnerable 
+to higher interest rates. In Japan, we expect strong equity 
+market performance to continue being driven by structural 
+changes; notably a shift to an inflationary environment 
+after decades of deflation. Continued corporate reforms are 
+resulting in Japanese companies being more proactive and 
+public on their plans for capital efficiency.5  
+Evolving Private Market Opportunities
+Private market opportunities continue to evolve, with 
+multiple avenues for investors to potentially enhance risk-
+adjusted returns and add diversification to traditional 
+investment exposures. In private equity, higher capital 
+costs have changed the calculus for dealmakers. We believe 
+operational value creation levers are poised to become the 
+main determinants of success in this new regime. Prudence in 
+deploying capital—for both new investments and supporting 
+existing companies—should also become an even more 
+critical factor to investment outcomes. With limited partners 
+(LPs) seeking liquidity from existing holdings, in some cases 
+as a prerequisite to new commitments, general partners (GPs) 
+may increasingly turn to continuation vehicles and structured 
+solutions to provide liquidity while value accrues. Secondaries 
+continue to present opportunities, as both LPs and GPs 
+seek deal and fund structures that offer both liquidity and 
+opportunities to extend hold times.  
+Private credit continues to expand, and remains valued by 
+borrowers as a flexible, timely solution to finance capital 
+needs. While yields on senior secured loans are still attractive compared with recent years, competitive pressure to deploy 
+capital has driven spreads tighter in 2024. To compensate, 
+some lenders are looking to refinance existing packages at 
+more attractive terms to extend duration (i.e., sacrificing 
+current yield for a higher multiple of invested capital). The 
+structure of private credit deals may evolve, too. For instance, 
+companies may seek to push down interest costs further by 
+including equity kickers to compensate for a lower spread. We 
+believe those with scale and flexibility to lend throughout the 
+capital stack, as well as a deep book of existing borrowers, 
+are best positioned. Semi-liquid vehicles represent a new 
+source of competition, with pressure to deploy capital 
+inflows relatively quickly potentially contributing to spread 
+tightening. Overall, while we do not anticipate widespread 
+distress, persistent elevated rates will likely test some fully 
+levered companies and certain business models over the 
+coming quarters. Underwriting, structuring discipline, robust 
+sourcing pipelines and experience should become a greater 
+determinant of ultimate outcomes, in our view.  
+Infrastructure dealmaking has decelerated broadly in recent 
+quarters, with higher rates proving a continued headwind, 
+but there are pockets of strength. Energy transition projects 
+continue to attract capital. Digital assets also remain popular, 
+with investors seeing compelling opportunities to develop 
+platforms as demand increases and regulatory frameworks 
+evolve. In real estate, diverging views on the timing and 
+magnitude of US rate cuts is keeping some investors on the 
+sidelines. Lingering risks in the US—including upcoming 
+elections, regulatory uncertainty, and rising insurance costs—
+complicate the outlook. Many investors remain focused 
+on the highest quality assets, while distressed sales have 
+seen a small uptick as valuations have continued to fall. We 
+expect demographics, technology, and the drive towards 
+sustainability to shape global real estate demand in the years 
+ahead, with economic and capital market dislocations creating 
+new opportunities over time. 
+Goldman Sachs Asset Management
+Asset Management Outlook 2024     |    6
+query_resposne_sim:0.7543610207031268</t>
+  </si>
+  <si>
+    <t>Based on the provided context, the year-to-date change in sovereign bond yields cannot be directly determined as it is not explicitly mentioned in the passage. However, we can infer some information from the context.
+The passage mentions that "in the short term, we expect DM government bond yields to be shaped by the latest economic indicators" and that "central banks focus on current data rather than inflation or economic forecasts." This suggests that the yield changes in the short term will likely be influenced by recent economic data, which could include data from the first half of 2024.
+Additionally, the passage mentions that "without clear evidence of economic deceleration, a sustained drop in yields is unlikely," which implies that any yield changes are unlikely to be significant or prolonged without evidence of an economic slowdown.
+Based on these hints, it is possible that the year-to-date change in sovereign bond yields has been relatively stable or even slightly increased, as there is no indication of a significant shift in yields over the past six months. However, this is purely speculative and based on indirect information from the context, rather than any explicit mention of yield changes.
+query_resposne_sim:0.8743945533771745</t>
   </si>
   <si>
     <t>prompt</t>
   </si>
   <si>
-    <t>'What is the year-to-date change in Sovereign Bond Yields'</t>
+    <t>What is the year-to-date change in Sovereign Bond Yields</t>
+  </si>
+  <si>
+    <t>Fixed Income document page 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +375,26 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -269,13 +427,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,61 +740,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="200" style="4" customWidth="1"/>
-    <col min="3" max="3" width="184" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="199.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="204.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="220" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="340" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -642,19 +802,25 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
